--- a/regression-analysis-and-predictive-models/penguin-logistic.xlsx
+++ b/regression-analysis-and-predictive-models/penguin-logistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-advanced-statistics-for-business-analytics\regression-analysis-and-predictive-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFDBF30-0C85-4B18-8101-915C6F02975A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970B0734-C4BD-449F-8554-8504C262D05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1069,7 +1069,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="438" row="4">
+  <wetp:taskpane dockstate="right" visibility="1" width="438" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -8262,7 +8262,7 @@
   <dimension ref="A1:U334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
